--- a/Data/F022.BTP.STO.Z.Z.CLP.D.xlsx
+++ b/Data/F022.BTP.STO.Z.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5377"/>
+  <dimension ref="A1:C5378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91775,6 +91775,23 @@
         </is>
       </c>
     </row>
+    <row r="5378">
+      <c r="A5378" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B5378" t="inlineStr">
+        <is>
+          <t>31412285</t>
+        </is>
+      </c>
+      <c r="C5378" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BTP.STO.Z.Z.CLP.D.xlsx
+++ b/Data/F022.BTP.STO.Z.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5378"/>
+  <dimension ref="A1:C5379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91792,6 +91792,23 @@
         </is>
       </c>
     </row>
+    <row r="5379">
+      <c r="A5379" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B5379" t="inlineStr">
+        <is>
+          <t>31412285</t>
+        </is>
+      </c>
+      <c r="C5379" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BTP.STO.Z.Z.CLP.D.xlsx
+++ b/Data/F022.BTP.STO.Z.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5379"/>
+  <dimension ref="A1:C5382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91809,6 +91809,57 @@
         </is>
       </c>
     </row>
+    <row r="5380">
+      <c r="A5380" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B5380" t="inlineStr">
+        <is>
+          <t>NeuN</t>
+        </is>
+      </c>
+      <c r="C5380" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="5381">
+      <c r="A5381" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B5381" t="inlineStr">
+        <is>
+          <t>NeuN</t>
+        </is>
+      </c>
+      <c r="C5381" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="5382">
+      <c r="A5382" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B5382" t="inlineStr">
+        <is>
+          <t>31412285</t>
+        </is>
+      </c>
+      <c r="C5382" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BTP.STO.Z.Z.CLP.D.xlsx
+++ b/Data/F022.BTP.STO.Z.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5382"/>
+  <dimension ref="A1:C5383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91860,6 +91860,23 @@
         </is>
       </c>
     </row>
+    <row r="5383">
+      <c r="A5383" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B5383" t="inlineStr">
+        <is>
+          <t>31412285</t>
+        </is>
+      </c>
+      <c r="C5383" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
